--- a/biology/Botanique/Gambeya_korupensis/Gambeya_korupensis.xlsx
+++ b/biology/Botanique/Gambeya_korupensis/Gambeya_korupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gambeya korupensis Ewango &amp; Kenfack est une espèce de plantes à fleurs du genre Gambeya, de la famille des Sapotaceae[1].
-C’est une espèce native du Cameroun[2], de la région du Sud-Ouest. On le trouve essentiellement dans le Parc national de Korup, d'où son nom.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gambeya korupensis Ewango &amp; Kenfack est une espèce de plantes à fleurs du genre Gambeya, de la famille des Sapotaceae.
+C’est une espèce native du Cameroun, de la région du Sud-Ouest. On le trouve essentiellement dans le Parc national de Korup, d'où son nom.
 C'est un arbre d’environ 6 à 15 m de haut, avec un tronc de 18 cm de diamètre. On le retrouve dans les prairies avec d’abondantes pluies, à 0–500 m d’altitude. 
-Suivant les critères de l’IUCN, elle est évaluée comme une espèce vulnérable[3],[1].
+Suivant les critères de l’IUCN, elle est évaluée comme une espèce vulnérable,.
 </t>
         </is>
       </c>
